--- a/assets/form_penilaian_isiansdm.xlsx
+++ b/assets/form_penilaian_isiansdm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\githubdownload\flutter_application_1\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{463CB915-AE06-4316-A1D4-0AB2559C1919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD9BC209-6AF1-403C-824E-B187C68209C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FD05E6C4-AD2B-9C40-9DEB-3E4631342333}"/>
   </bookViews>
@@ -50,9 +50,6 @@
     <t>Kriteria</t>
   </si>
   <si>
-    <t>Sistem Vertikal Bangunan Lebih dari 1 Lantai</t>
-  </si>
-  <si>
     <t>Kalau diolah oleh orang lain, apakah bermasalah atau tidak? Kalau bermasalah, dimananya yang bermasalah?</t>
   </si>
   <si>
@@ -125,6 +122,9 @@
 &gt; 80 %  = 2 
 50-80 %   = 1 
 &lt; 50 %     = 0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kehadiran Tenaga Kesehatan </t>
   </si>
 </sst>
 </file>
@@ -203,16 +203,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -551,8 +551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3E9FC4D-8050-6F44-B522-43B0D83BF861}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -568,7 +568,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -579,14 +579,14 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
@@ -594,14 +594,14 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
@@ -609,14 +609,14 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="171.6" x14ac:dyDescent="0.3">
@@ -624,11 +624,11 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E5" s="3"/>
     </row>
@@ -637,14 +637,14 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">

--- a/assets/form_penilaian_isiansdm.xlsx
+++ b/assets/form_penilaian_isiansdm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\githubdownload\flutter_application_1\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD9BC209-6AF1-403C-824E-B187C68209C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A65C8C1-CE01-493B-B0FA-03879B46EC88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FD05E6C4-AD2B-9C40-9DEB-3E4631342333}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Header1</t>
   </si>
@@ -61,15 +61,6 @@
  </t>
   </si>
   <si>
-    <t xml:space="preserve">Kehadiran 
-Tenaga 
-Kesehatan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pelatihan yang pernah dilakukan dalam 1 tahun terakhir 
- </t>
-  </si>
-  <si>
     <t xml:space="preserve">Pemegang 
 Program 
  </t>
@@ -77,16 +68,6 @@
   <si>
     <t xml:space="preserve">Berapakah jumlah tenaga kesehatan yang bekerja pada instansi saudara? 
  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jumlah tenaga kesehatan adalah jumlah keseluruhan dari tenaga kesehatan yang bekerja pada instansi sesuai dengan standar pelayanan minimal yang harus dimiliki oleh instansi tersebut. 
-Persentase jumlah tenaga kesehatan adalah jumlah tenaga kesehatan yang ada dibagi dengan jumlah tenaga kesehatan yang diperlukan per masing-masing tenaga dikalikan 100% &gt;80 %     = 2 
-50-80 %  = 1 
-&lt; 50 %    = 0 
-Tenaga kesehatan adalah tenaga kesehatan yang diperlukan sesuai standar pelayan minimal. Rincian tenaga kesehatan sesuai dengan SPM ada pada tabel di bawah.  
- Pengambilan data dapat berupa wawancara ke kepala TU/pejabat yang ada/laporan kepegawaian. Khusus rumah 
-sakit dapat dilihat pada dokumen Peta 
-Jabatan/Analisis Beban Kinerja (ABK). </t>
   </si>
   <si>
     <t xml:space="preserve">Kehadiran tenaga kesehatan adalah keberadaan dari tenaga kesehatan di instansi kerja saudara sesuai dengan tugas dan fungsinya.  
@@ -99,9 +80,6 @@
   <si>
     <t xml:space="preserve">Berapakah persentase kehadiran tenaga kesehatan yang ada di fasilitas kesehatan? 
  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Berapakah jumlah staf kesehatan yang ikut dalam pelatihan dalam 1 tahun terakhir? </t>
   </si>
   <si>
     <t xml:space="preserve">Pelatihan yang pernah dilakukan adalah jumlah dari tenaga kesehatan yang pernah ikut dalam pelatihan standar yang harus diikuti sesuai dengan kompetensi dan tupoksi masing-masing di instansi saudara selama satu tahun terakhir.  
@@ -125,6 +103,19 @@
   </si>
   <si>
     <t xml:space="preserve">Kehadiran Tenaga Kesehatan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jumlah tenaga kesehatan adalah jumlah keseluruhan dari tenaga kesehatan yang bekerja pada instansi sesuai dengan standar pelayanan minimal yang harus dimiliki oleh instansi tersebut. 
+Persentase jumlah tenaga kesehatan adalah jumlah tenaga kesehatan yang ada dibagi dengan jumlah tenaga kesehatan yang diperlukan per masing-masing tenaga dikalikan 100% &gt;80 %     = 2 
+50-80 %  = 1 
+&lt; 50 %    = 0 
+Tenaga kesehatan adalah tenaga kesehatan yang diperlukan sesuai standar pelayan minimal. Rincian tenaga kesehatan sesuai dengan SPM ada pada tabel di bawah.  
+ Pengambilan data dapat berupa wawancara xke kepala TU/pejabat yang ada/laporan kepegawaian. Khusus rumah 
+sakit dapat dilihat pada dokumen Peta 
+Jabatan/Analisis Beban Kinerja (ABK). </t>
+  </si>
+  <si>
+    <t>Pelatihan yang pernah dilakukan dalam 1 tahun terakhir</t>
   </si>
 </sst>
 </file>
@@ -551,8 +542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3E9FC4D-8050-6F44-B522-43B0D83BF861}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -583,10 +574,10 @@
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
@@ -594,14 +585,14 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
@@ -609,42 +600,29 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="171.6" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="396" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5" ht="396" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>17</v>
+      <c r="E5" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
